--- a/data/Consumo_AguaPotavel.xlsx
+++ b/data/Consumo_AguaPotavel.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vasco Abreu - PC\Documents\Python Projects\Matriz_Agua\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7E03CD8-39A7-4510-9386-15677105367F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D93E27D2-B8C1-4E61-B1E2-D56933C15887}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CC9C41AC-D841-45C3-BC3A-7E72D0D4C5EE}"/>
   </bookViews>
@@ -24,7 +24,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
   <si>
     <t>Doméstico</t>
   </si>
@@ -157,12 +159,15 @@
   <si>
     <t>NOTA:</t>
   </si>
+  <si>
+    <t>www.lisboaenova.org | www.observatorios-lisboa.pt</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -187,8 +192,67 @@
       <family val="2"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF74BA9C"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF74BA9C"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF74BA9C"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1" tint="0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="1" tint="0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -219,8 +283,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -243,11 +319,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF74BA9C"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -255,9 +354,6 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -283,8 +379,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -298,6 +409,302 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1962149</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="5" name="Agrupar 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B65B4AE-2BF2-4BFF-AD0F-31D0E10DD29F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr>
+          <a:grpSpLocks noChangeAspect="1"/>
+        </xdr:cNvGrpSpPr>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="0" y="66675"/>
+          <a:ext cx="2733674" cy="590550"/>
+          <a:chOff x="571501" y="47625"/>
+          <a:chExt cx="2733674" cy="590550"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="6" name="Imagem 3" descr="Logo Observatórios Lisboa">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84DED6DE-3F8B-41D6-AFAD-260ABAC405A7}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+            <a:clrChange>
+              <a:clrFrom>
+                <a:srgbClr val="FFFFFF"/>
+              </a:clrFrom>
+              <a:clrTo>
+                <a:srgbClr val="FFFFFF">
+                  <a:alpha val="0"/>
+                </a:srgbClr>
+              </a:clrTo>
+            </a:clrChange>
+            <a:duotone>
+              <a:schemeClr val="bg2">
+                <a:shade val="45000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+              <a:prstClr val="white"/>
+            </a:duotone>
+            <a:extLst>
+              <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+                <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a14:imgLayer r:embed="rId2">
+                    <a14:imgEffect>
+                      <a14:brightnessContrast bright="73000" contrast="100000"/>
+                    </a14:imgEffect>
+                  </a14:imgLayer>
+                </a14:imgProps>
+              </a:ext>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="2105026" y="161927"/>
+            <a:ext cx="1200149" cy="398680"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="7" name="Imagem 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09D4136F-897A-4F3E-A8A5-12042EE5531E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect t="10000"/>
+          <a:stretch/>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="571501" y="47625"/>
+            <a:ext cx="1235726" cy="590550"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1962149</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="5" name="Agrupar 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5561904-A1D7-4083-A08A-59A5C1E7678A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr>
+          <a:grpSpLocks noChangeAspect="1"/>
+        </xdr:cNvGrpSpPr>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="0" y="66675"/>
+          <a:ext cx="2733674" cy="590550"/>
+          <a:chOff x="571501" y="47625"/>
+          <a:chExt cx="2733674" cy="590550"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="6" name="Imagem 3" descr="Logo Observatórios Lisboa">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6949779-37C6-457E-B44B-4528B569A791}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+            <a:clrChange>
+              <a:clrFrom>
+                <a:srgbClr val="FFFFFF"/>
+              </a:clrFrom>
+              <a:clrTo>
+                <a:srgbClr val="FFFFFF">
+                  <a:alpha val="0"/>
+                </a:srgbClr>
+              </a:clrTo>
+            </a:clrChange>
+            <a:duotone>
+              <a:schemeClr val="bg2">
+                <a:shade val="45000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+              <a:prstClr val="white"/>
+            </a:duotone>
+            <a:extLst>
+              <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+                <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a14:imgLayer r:embed="rId2">
+                    <a14:imgEffect>
+                      <a14:brightnessContrast bright="73000" contrast="100000"/>
+                    </a14:imgEffect>
+                  </a14:imgLayer>
+                </a14:imgProps>
+              </a:ext>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="2105026" y="161927"/>
+            <a:ext cx="1200149" cy="398680"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="7" name="Imagem 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F0D0BF1-AD16-48C7-9B86-3B803638F64E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect t="10000"/>
+          <a:stretch/>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="571501" y="47625"/>
+            <a:ext cx="1235726" cy="590550"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -597,571 +1004,604 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40D87325-FA51-410A-972F-CB5F10F0BC22}">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A74" sqref="A74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.5703125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.85546875" style="6" customWidth="1"/>
-    <col min="10" max="10" width="10" style="6" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="11.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.5703125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" style="5" customWidth="1"/>
+    <col min="10" max="10" width="10" style="5" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="30">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:9" s="13" customFormat="1" ht="39" customHeight="1">
+      <c r="A1" s="12"/>
+    </row>
+    <row r="2" spans="1:9" s="16" customFormat="1">
+      <c r="A2" s="14"/>
+      <c r="B2" s="15"/>
+    </row>
+    <row r="3" spans="1:9" s="17" customFormat="1" ht="12.75">
+      <c r="A3" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+    </row>
+    <row r="5" spans="1:9" ht="30">
+      <c r="A5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="17.25">
-      <c r="A2" s="5" t="s">
+    <row r="6" spans="1:9" ht="17.25">
+      <c r="A6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="30">
-      <c r="A3" s="7" t="s">
+    <row r="7" spans="1:9" ht="30">
+      <c r="A7" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="9" t="s">
+    <row r="9" spans="1:9">
+      <c r="A9" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C9" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D9" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E9" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F9" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G9" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H9" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I9" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="10">
+    <row r="10" spans="1:9">
+      <c r="A10" s="9">
         <v>2013</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B10" s="3">
         <v>26500</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C10" s="3">
         <v>11300</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D10" s="3">
         <v>1900</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E10" s="3">
         <v>4700</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F10" s="3">
         <v>8400</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G10" s="3">
         <v>0</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H10" s="3">
         <v>2600</v>
       </c>
-      <c r="I6" s="11">
+      <c r="I10" s="10">
         <v>55400</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="2">
-        <v>2014</v>
-      </c>
-      <c r="B7" s="3">
-        <v>26500</v>
-      </c>
-      <c r="C7" s="3">
-        <v>11500</v>
-      </c>
-      <c r="D7" s="3">
-        <v>1800</v>
-      </c>
-      <c r="E7" s="3">
-        <v>4400</v>
-      </c>
-      <c r="F7" s="3">
-        <v>7400</v>
-      </c>
-      <c r="G7" s="3">
-        <v>800</v>
-      </c>
-      <c r="H7" s="3">
-        <v>3000</v>
-      </c>
-      <c r="I7" s="11">
-        <v>55400</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="2">
-        <v>2015</v>
-      </c>
-      <c r="B8" s="3">
-        <v>26900</v>
-      </c>
-      <c r="C8" s="3">
-        <v>12200</v>
-      </c>
-      <c r="D8" s="3">
-        <v>2000</v>
-      </c>
-      <c r="E8" s="3">
-        <v>4100</v>
-      </c>
-      <c r="F8" s="3">
-        <v>6800</v>
-      </c>
-      <c r="G8" s="3">
-        <v>1100</v>
-      </c>
-      <c r="H8" s="3">
-        <v>3439.51313935999</v>
-      </c>
-      <c r="I8" s="11">
-        <v>56539.513139359988</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="2">
-        <v>2016</v>
-      </c>
-      <c r="B9" s="3">
-        <v>27212.502362500003</v>
-      </c>
-      <c r="C9" s="3">
-        <v>12688.575644999999</v>
-      </c>
-      <c r="D9" s="3">
-        <v>1979.2497949999999</v>
-      </c>
-      <c r="E9" s="3">
-        <v>4031.0410650000003</v>
-      </c>
-      <c r="F9" s="3">
-        <v>3866.9824699999999</v>
-      </c>
-      <c r="G9" s="3">
-        <v>1470.1410000000001</v>
-      </c>
-      <c r="H9" s="3">
-        <v>4649.3320000000003</v>
-      </c>
-      <c r="I9" s="11">
-        <v>55897.824337500009</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="2">
-        <v>2017</v>
-      </c>
-      <c r="B10" s="3">
-        <v>27488.097277499997</v>
-      </c>
-      <c r="C10" s="3">
-        <v>13343.974435</v>
-      </c>
-      <c r="D10" s="3">
-        <v>2119.9550074999997</v>
-      </c>
-      <c r="E10" s="3">
-        <v>3931.6008449999999</v>
-      </c>
-      <c r="F10" s="3">
-        <v>3115.3787499999999</v>
-      </c>
-      <c r="G10" s="3">
-        <v>1832.366</v>
-      </c>
-      <c r="H10" s="3">
-        <v>5333.29781928182</v>
-      </c>
-      <c r="I10" s="11">
-        <v>57164.670134281812</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="2">
+        <v>2014</v>
+      </c>
+      <c r="B11" s="3">
+        <v>26500</v>
+      </c>
+      <c r="C11" s="3">
+        <v>11500</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E11" s="3">
+        <v>4400</v>
+      </c>
+      <c r="F11" s="3">
+        <v>7400</v>
+      </c>
+      <c r="G11" s="3">
+        <v>800</v>
+      </c>
+      <c r="H11" s="3">
+        <v>3000</v>
+      </c>
+      <c r="I11" s="10">
+        <v>55400</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="2">
+        <v>2015</v>
+      </c>
+      <c r="B12" s="3">
+        <v>26900</v>
+      </c>
+      <c r="C12" s="3">
+        <v>12200</v>
+      </c>
+      <c r="D12" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E12" s="3">
+        <v>4100</v>
+      </c>
+      <c r="F12" s="3">
+        <v>6800</v>
+      </c>
+      <c r="G12" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H12" s="3">
+        <v>3439.51313935999</v>
+      </c>
+      <c r="I12" s="10">
+        <v>56539.513139359988</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="2">
+        <v>2016</v>
+      </c>
+      <c r="B13" s="3">
+        <v>27212.502362500003</v>
+      </c>
+      <c r="C13" s="3">
+        <v>12688.575644999999</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1979.2497949999999</v>
+      </c>
+      <c r="E13" s="3">
+        <v>4031.0410650000003</v>
+      </c>
+      <c r="F13" s="3">
+        <v>3866.9824699999999</v>
+      </c>
+      <c r="G13" s="3">
+        <v>1470.1410000000001</v>
+      </c>
+      <c r="H13" s="3">
+        <v>4649.3320000000003</v>
+      </c>
+      <c r="I13" s="10">
+        <v>55897.824337500009</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="2">
+        <v>2017</v>
+      </c>
+      <c r="B14" s="3">
+        <v>27488.097277499997</v>
+      </c>
+      <c r="C14" s="3">
+        <v>13343.974435</v>
+      </c>
+      <c r="D14" s="3">
+        <v>2119.9550074999997</v>
+      </c>
+      <c r="E14" s="3">
+        <v>3931.6008449999999</v>
+      </c>
+      <c r="F14" s="3">
+        <v>3115.3787499999999</v>
+      </c>
+      <c r="G14" s="3">
+        <v>1832.366</v>
+      </c>
+      <c r="H14" s="3">
+        <v>5333.29781928182</v>
+      </c>
+      <c r="I14" s="10">
+        <v>57164.670134281812</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="2">
         <v>2018</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B15" s="3">
         <v>26783.307247500004</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C15" s="3">
         <v>13331.908552499999</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D15" s="3">
         <v>1977.3104575</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E15" s="3">
         <v>3517.29675</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F15" s="3">
         <v>2644.46875</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G15" s="3">
         <v>1555.4269899999999</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H15" s="3">
         <v>4660.24740151674</v>
       </c>
-      <c r="I11" s="11">
+      <c r="I15" s="10">
         <v>54469.966149016749</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
-      <c r="B18" s="12"/>
+    <row r="22" spans="2:2">
+      <c r="B22" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3885A242-B590-4F18-AE9E-C733618436C5}">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView showGridLines="0" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A74" sqref="A74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.42578125" customWidth="1"/>
     <col min="3" max="10" width="17.5703125" customWidth="1"/>
     <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="45.75" customHeight="1">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:12" s="13" customFormat="1" ht="39" customHeight="1">
+      <c r="A1" s="12"/>
+    </row>
+    <row r="2" spans="1:12" s="16" customFormat="1">
+      <c r="A2" s="14"/>
+      <c r="B2" s="15"/>
+    </row>
+    <row r="3" spans="1:12" s="17" customFormat="1" ht="12.75">
+      <c r="A3" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+    </row>
+    <row r="5" spans="1:12" ht="45.75" customHeight="1">
+      <c r="A5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="17.25">
-      <c r="A2" s="4" t="s">
+    <row r="6" spans="1:12" ht="17.25">
+      <c r="A6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="45">
-      <c r="A6" s="2" t="s">
+    <row r="9" spans="1:12">
+      <c r="A9"/>
+    </row>
+    <row r="10" spans="1:12" ht="45">
+      <c r="A10" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B10" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C10" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D10" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E10" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F10" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G10" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H10" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I10" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="J10" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="K10" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="L10" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="2">
+    <row r="11" spans="1:12">
+      <c r="A11" s="2">
         <v>2013</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B11" s="3">
         <v>8400</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C11" s="3">
         <v>3800</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D11" s="3">
         <v>2500</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E11" s="3">
         <v>2100</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F11" s="3">
         <v>1700</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G11" s="3">
         <v>1300</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H11" s="3">
         <v>1200</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I11" s="3">
         <v>1000</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J11" s="3">
         <v>800</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K11" s="3">
         <v>3500</v>
       </c>
-      <c r="L7" s="3">
-        <f>+SUM(B7:K7)</f>
+      <c r="L11" s="3">
+        <f>+SUM(B11:K11)</f>
         <v>26300</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="2">
+    <row r="12" spans="1:12">
+      <c r="A12" s="2">
         <v>2014</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B12" s="3">
         <v>8200</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C12" s="3">
         <v>4000</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D12" s="3">
         <v>2400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E12" s="3">
         <v>1900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F12" s="3">
         <v>1700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G12" s="3">
         <v>1300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H12" s="3">
         <v>1200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I12" s="3">
         <v>1000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J12" s="3">
         <v>800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K12" s="3">
         <v>3400</v>
       </c>
-      <c r="L8" s="3">
-        <f t="shared" ref="L8:L12" si="0">+SUM(B8:K8)</f>
+      <c r="L12" s="3">
+        <f t="shared" ref="L12:L16" si="0">+SUM(B12:K12)</f>
         <v>25900</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="2">
+    <row r="13" spans="1:12">
+      <c r="A13" s="2">
         <v>2015</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B13" s="3">
         <v>7900</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C13" s="3">
         <v>4400</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D13" s="3">
         <v>2400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E13" s="3">
         <v>1800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F13" s="3">
         <v>1800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G13" s="3">
         <v>1300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H13" s="3">
         <v>1100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I13" s="3">
         <v>1100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J13" s="3">
         <v>900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K13" s="3">
         <v>3500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="L13" s="3">
         <f t="shared" si="0"/>
         <v>26200</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="2">
+    <row r="14" spans="1:12">
+      <c r="A14" s="2">
         <v>2016</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B14" s="3">
         <v>5337.1234699999995</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C14" s="3">
         <v>4625.777</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D14" s="3">
         <v>1847.941</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E14" s="3">
         <v>2355.6695300000001</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F14" s="3">
         <v>1062.9061999999999</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G14" s="3">
         <v>1159.4059099999999</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H14" s="3">
         <v>1826.9283799999998</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I14" s="3">
         <v>1371.7660000000001</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J14" s="3">
         <v>954.23332000000016</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K14" s="3">
         <v>3494.239164999999</v>
       </c>
-      <c r="L10" s="3">
+      <c r="L14" s="3">
         <f t="shared" si="0"/>
         <v>24035.989975</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="2">
+    <row r="15" spans="1:12">
+      <c r="A15" s="2">
         <v>2017</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B15" s="3">
         <v>4947.7447499999998</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C15" s="3">
         <v>4931.8139099999999</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D15" s="3">
         <v>1843.83518</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E15" s="3">
         <v>2409.0609800000002</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F15" s="3">
         <v>1093.2911099999999</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G15" s="3">
         <v>1128.1559999999999</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H15" s="3">
         <v>1871.71201</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I15" s="3">
         <v>1253.2990200000002</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J15" s="3">
         <v>1067.1725699999997</v>
       </c>
-      <c r="K11" s="3">
+      <c r="K15" s="3">
         <v>3755.5014099999985</v>
       </c>
-      <c r="L11" s="3">
+      <c r="L15" s="3">
         <f t="shared" si="0"/>
         <v>24301.586939999994</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="2">
+    <row r="16" spans="1:12">
+      <c r="A16" s="19">
         <v>2018</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B16" s="3">
         <v>4199.8957399999999</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C16" s="3">
         <v>4984.5418999999993</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D16" s="3">
         <v>1790.3500000000001</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E16" s="3">
         <v>2393.8427899999997</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F16" s="3">
         <v>814.577</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G16" s="3">
         <v>1069.9351000000001</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H16" s="3">
         <v>1814.09546</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I16" s="3">
         <v>1221.097</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J16" s="3">
         <v>1148.2906099999989</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K16" s="3">
         <v>3641.3305899999964</v>
       </c>
-      <c r="L12" s="3">
+      <c r="L16" s="3">
         <f t="shared" si="0"/>
         <v>23077.956190000001</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
-      <c r="D15" s="1"/>
+    <row r="19" spans="4:4">
+      <c r="D19" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/Consumo_AguaPotavel.xlsx
+++ b/data/Consumo_AguaPotavel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vasco Abreu - PC\Documents\Python Projects\Matriz_Agua\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D93E27D2-B8C1-4E61-B1E2-D56933C15887}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29273B7A-AAFC-44D4-BB6B-CA6ABD298970}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CC9C41AC-D841-45C3-BC3A-7E72D0D4C5EE}"/>
   </bookViews>
@@ -1280,7 +1280,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3885A242-B590-4F18-AE9E-C733618436C5}">
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A43" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A74" sqref="A74"/>
     </sheetView>
   </sheetViews>

--- a/data/Consumo_AguaPotavel.xlsx
+++ b/data/Consumo_AguaPotavel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vasco Abreu - PC\Documents\Python Projects\Matriz_Agua\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29273B7A-AAFC-44D4-BB6B-CA6ABD298970}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BDBE009-B5CF-4F0F-B413-188909955861}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CC9C41AC-D841-45C3-BC3A-7E72D0D4C5EE}"/>
+    <workbookView xWindow="17865" yWindow="3750" windowWidth="21735" windowHeight="5370" activeTab="1" xr2:uid="{CC9C41AC-D841-45C3-BC3A-7E72D0D4C5EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Consumo_Sector" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
   <si>
     <t>Doméstico</t>
   </si>
@@ -46,9 +46,6 @@
   </si>
   <si>
     <t>Câmara Municipal de Lisboa</t>
-  </si>
-  <si>
-    <t>Juntas de Freguesia</t>
   </si>
   <si>
     <t>Ano</t>
@@ -161,6 +158,12 @@
   </si>
   <si>
     <t>www.lisboaenova.org | www.observatorios-lisboa.pt</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Delegações CML</t>
   </si>
 </sst>
 </file>
@@ -1006,8 +1009,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40D87325-FA51-410A-972F-CB5F10F0BC22}">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A74" sqref="A74"/>
+    <sheetView showGridLines="0" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1034,38 +1037,38 @@
     </row>
     <row r="3" spans="1:9" s="17" customFormat="1" ht="12.75">
       <c r="A3" s="17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
     </row>
     <row r="5" spans="1:9" ht="30">
       <c r="A5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25">
       <c r="A6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="30">
       <c r="A7" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>0</v>
@@ -1077,19 +1080,19 @@
         <v>2</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>3</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1111,8 +1114,8 @@
       <c r="F10" s="3">
         <v>8400</v>
       </c>
-      <c r="G10" s="3">
-        <v>0</v>
+      <c r="G10" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="H10" s="3">
         <v>2600</v>
@@ -1219,7 +1222,7 @@
         <v>13343.974435</v>
       </c>
       <c r="D14" s="3">
-        <v>2119.9550074999997</v>
+        <v>2216.8420075000004</v>
       </c>
       <c r="E14" s="3">
         <v>3931.6008449999999</v>
@@ -1234,7 +1237,7 @@
         <v>5333.29781928182</v>
       </c>
       <c r="I14" s="10">
-        <v>57164.670134281812</v>
+        <v>57261.557134281815</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1248,7 +1251,7 @@
         <v>13331.908552499999</v>
       </c>
       <c r="D15" s="3">
-        <v>1977.3104575</v>
+        <v>2097.1594574999999</v>
       </c>
       <c r="E15" s="3">
         <v>3517.29675</v>
@@ -1257,13 +1260,13 @@
         <v>2644.46875</v>
       </c>
       <c r="G15" s="3">
-        <v>1555.4269899999999</v>
+        <v>1435.57799</v>
       </c>
       <c r="H15" s="3">
         <v>4660.24740151674</v>
       </c>
       <c r="I15" s="10">
-        <v>54469.966149016749</v>
+        <v>54469.966149016742</v>
       </c>
     </row>
     <row r="22" spans="2:2">
@@ -1280,8 +1283,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3885A242-B590-4F18-AE9E-C733618436C5}">
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A74" sqref="A74"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1301,25 +1304,25 @@
     </row>
     <row r="3" spans="1:12" s="17" customFormat="1" ht="12.75">
       <c r="A3" s="17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
     </row>
     <row r="5" spans="1:12" ht="45.75" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="17.25">
       <c r="A6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1327,40 +1330,40 @@
     </row>
     <row r="10" spans="1:12" ht="45">
       <c r="A10" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10" s="8" t="s">
         <v>5</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="K10" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="L10" s="8" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:12">

--- a/data/Consumo_AguaPotavel.xlsx
+++ b/data/Consumo_AguaPotavel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vasco Abreu - PC\Documents\Python Projects\Matriz_Agua\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vasco Abreu - PC\Documents\Python Projects\matrizagua\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BDBE009-B5CF-4F0F-B413-188909955861}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3CC0590-84EA-4BC3-BEF2-F24FF365B32D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17865" yWindow="3750" windowWidth="21735" windowHeight="5370" activeTab="1" xr2:uid="{CC9C41AC-D841-45C3-BC3A-7E72D0D4C5EE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CC9C41AC-D841-45C3-BC3A-7E72D0D4C5EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Consumo_Sector" sheetId="1" r:id="rId1"/>
@@ -349,7 +349,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -395,6 +395,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -445,7 +448,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="0" y="66675"/>
-          <a:ext cx="2733674" cy="590550"/>
+          <a:ext cx="2754629" cy="590550"/>
           <a:chOff x="571501" y="47625"/>
           <a:chExt cx="2733674" cy="590550"/>
         </a:xfrm>
@@ -593,7 +596,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="0" y="66675"/>
-          <a:ext cx="2733674" cy="590550"/>
+          <a:ext cx="2754629" cy="590550"/>
           <a:chOff x="571501" y="47625"/>
           <a:chExt cx="2733674" cy="590550"/>
         </a:xfrm>
@@ -1007,25 +1010,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40D87325-FA51-410A-972F-CB5F10F0BC22}">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.5703125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.5546875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="19.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.109375" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.5546875" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="26" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.85546875" style="5" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" style="5" customWidth="1"/>
     <col min="10" max="10" width="10" style="5" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="5"/>
+    <col min="11" max="16384" width="9.109375" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="13" customFormat="1" ht="39" customHeight="1">
@@ -1035,14 +1038,14 @@
       <c r="A2" s="14"/>
       <c r="B2" s="15"/>
     </row>
-    <row r="3" spans="1:9" s="17" customFormat="1" ht="12.75">
+    <row r="3" spans="1:9" s="17" customFormat="1" ht="13.8">
       <c r="A3" s="17" t="s">
         <v>25</v>
       </c>
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
     </row>
-    <row r="5" spans="1:9" ht="30">
+    <row r="5" spans="1:9" ht="28.8">
       <c r="A5" s="4" t="s">
         <v>18</v>
       </c>
@@ -1050,7 +1053,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="17.25">
+    <row r="6" spans="1:9" ht="16.2">
       <c r="A6" s="4" t="s">
         <v>20</v>
       </c>
@@ -1058,7 +1061,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="30">
+    <row r="7" spans="1:9" ht="28.8">
       <c r="A7" s="6" t="s">
         <v>24</v>
       </c>
@@ -1251,7 +1254,7 @@
         <v>13331.908552499999</v>
       </c>
       <c r="D15" s="3">
-        <v>2097.1594574999999</v>
+        <v>1977.31</v>
       </c>
       <c r="E15" s="3">
         <v>3517.29675</v>
@@ -1260,7 +1263,7 @@
         <v>2644.46875</v>
       </c>
       <c r="G15" s="3">
-        <v>1435.57799</v>
+        <v>1555.4269999999999</v>
       </c>
       <c r="H15" s="3">
         <v>4660.24740151674</v>
@@ -1269,8 +1272,37 @@
         <v>54469.966149016742</v>
       </c>
     </row>
-    <row r="22" spans="2:2">
-      <c r="B22" s="11"/>
+    <row r="16" spans="1:9">
+      <c r="A16" s="2">
+        <v>2019</v>
+      </c>
+      <c r="B16" s="3">
+        <v>27102.164000000001</v>
+      </c>
+      <c r="C16" s="3">
+        <v>14026.593000000001</v>
+      </c>
+      <c r="D16" s="3">
+        <v>2018.3050000000001</v>
+      </c>
+      <c r="E16" s="3">
+        <v>3347.4259999999999</v>
+      </c>
+      <c r="F16" s="3">
+        <v>2604.2750000000001</v>
+      </c>
+      <c r="G16" s="3">
+        <v>1481.0319999999999</v>
+      </c>
+      <c r="H16" s="3">
+        <v>4214.5879999999997</v>
+      </c>
+      <c r="I16" s="10">
+        <v>54794.383000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1283,16 +1315,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3885A242-B590-4F18-AE9E-C733618436C5}">
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.42578125" customWidth="1"/>
-    <col min="3" max="10" width="17.5703125" customWidth="1"/>
-    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.44140625" customWidth="1"/>
+    <col min="3" max="10" width="17.5546875" customWidth="1"/>
+    <col min="11" max="11" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="13" customFormat="1" ht="39" customHeight="1">
@@ -1302,7 +1334,7 @@
       <c r="A2" s="14"/>
       <c r="B2" s="15"/>
     </row>
-    <row r="3" spans="1:12" s="17" customFormat="1" ht="12.75">
+    <row r="3" spans="1:12" s="17" customFormat="1" ht="13.8">
       <c r="A3" s="17" t="s">
         <v>25</v>
       </c>
@@ -1317,7 +1349,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="17.25">
+    <row r="6" spans="1:12" ht="16.2">
       <c r="A6" s="4" t="s">
         <v>20</v>
       </c>
@@ -1328,7 +1360,7 @@
     <row r="9" spans="1:12">
       <c r="A9"/>
     </row>
-    <row r="10" spans="1:12" ht="45">
+    <row r="10" spans="1:12" ht="43.2">
       <c r="A10" s="8" t="s">
         <v>4</v>
       </c>
@@ -1440,7 +1472,7 @@
         <v>3400</v>
       </c>
       <c r="L12" s="3">
-        <f t="shared" ref="L12:L16" si="0">+SUM(B12:K12)</f>
+        <f t="shared" ref="L12:L17" si="0">+SUM(B12:K12)</f>
         <v>25900</v>
       </c>
     </row>
@@ -1569,7 +1601,7 @@
         <v>4199.8957399999999</v>
       </c>
       <c r="C16" s="3">
-        <v>4984.5418999999993</v>
+        <v>5185.0870000000004</v>
       </c>
       <c r="D16" s="3">
         <v>1790.3500000000001</v>
@@ -1597,10 +1629,61 @@
       </c>
       <c r="L16" s="3">
         <f t="shared" si="0"/>
-        <v>23077.956190000001</v>
-      </c>
-    </row>
-    <row r="19" spans="4:4">
+        <v>23278.50129</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="19">
+        <v>2019</v>
+      </c>
+      <c r="B17" s="3">
+        <v>4085.3069999999998</v>
+      </c>
+      <c r="C17" s="3">
+        <v>5525.06</v>
+      </c>
+      <c r="D17" s="3">
+        <v>1696.7339999999999</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2410.46</v>
+      </c>
+      <c r="F17" s="3">
+        <v>974.78499999999997</v>
+      </c>
+      <c r="G17" s="3">
+        <v>975.46400000000006</v>
+      </c>
+      <c r="H17" s="3">
+        <v>1939.54</v>
+      </c>
+      <c r="I17" s="3">
+        <v>1226.6489999999999</v>
+      </c>
+      <c r="J17" s="3">
+        <v>1215.287</v>
+      </c>
+      <c r="K17" s="3">
+        <v>3428.3449999999998</v>
+      </c>
+      <c r="L17" s="3">
+        <f t="shared" si="0"/>
+        <v>23477.631000000005</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="C19" s="20"/>
       <c r="D19" s="1"/>
     </row>
   </sheetData>
